--- a/Issue Tracker.xlsx
+++ b/Issue Tracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9810B021-8EAF-3249-AFC7-F5A325AEE8B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA30BE78-B991-A04F-A1E6-C43B36B5D64B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Issue Tracker.xlsx
+++ b/Issue Tracker.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA30BE78-B991-A04F-A1E6-C43B36B5D64B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4859BB-F8BC-984C-8275-1CADB3A5E5E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +543,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -843,11 +843,14 @@
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="7">
         <v>44123</v>
+      </c>
+      <c r="D20" s="7">
+        <v>44150</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
@@ -857,13 +860,13 @@
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>44123</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="5">
         <v>44125</v>
       </c>
       <c r="E21" t="s">
@@ -874,23 +877,25 @@
       <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="5">
         <v>44125</v>
       </c>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="5">
         <v>44125</v>
       </c>
+      <c r="D23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
